--- a/ELDORADO_DO_SUL.xlsx
+++ b/ELDORADO_DO_SUL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A0D9367-23A7-43F5-B5A2-27A8AC45CF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76321403-8D20-425F-8826-AA78343846CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,20 +21,7 @@
     <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1065,7 +1052,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1125,36 +1112,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1193,14 +1156,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1246,7 +1204,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{B1B4AD56-2456-4FC9-868A-CD6486D2A421}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{6629A85A-DBC9-4CD8-8FD4-01AE0F18A226}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1276,10 +1234,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B20284E-4E01-49C3-81F9-1AE4E94238AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75F0E2C0-5EF4-4789-A91E-499D6201AE50}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1317,7 +1275,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6502CCF-8892-4F66-A844-25F9C5A655B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A5D698D-1952-41F1-8DAF-328F02B0C872}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1380,7 +1338,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70CE0004-886B-4031-A850-84E0379ADEC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B7A4EF2-7E5B-4594-9790-426D0E19146E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1399,7 +1357,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{804450F6-0C2E-3AD4-AF38-5CA617ED6CE4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C0A0623-DA14-B4C1-5FE4-D46635DEDC5F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1448,7 +1406,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EB85A44-7CEA-743F-F5CE-2476780D32C6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2268B447-1D7F-A426-582A-ACCFDDF20C14}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1467,7 +1425,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96490255-A200-E44B-9DED-4FF11D0CF86D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F69205C-65AE-311D-253C-96F2248F1E0F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1498,7 +1456,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4949654F-3DB7-5E73-5543-69D941166D00}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA6A65E-73F9-A3DB-18F2-E23135DE5FB5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1529,7 +1487,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC2892DB-CF8F-1159-5DE4-10780187D6D1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B3B4139-9268-7DA3-8DC8-2FF79480FEF8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1572,7 +1530,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07E1C92A-FFD3-426B-BD7B-C1DAD95954FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD080D8-67B4-4C64-AA5D-AF0D93451BC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1610,7 +1568,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A446FF32-03F4-49A5-A7A7-F9BA273CC533}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B65D4C3-EFDD-4A42-AFA0-59B3BD77526B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1653,7 +1611,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97E6AEF5-969A-44F6-BC2C-AE3AFADAB89C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14A97D29-49FE-49F7-92CF-21E523AC1AEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1966,7 +1924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E3D7DC-2769-4403-9A35-95F16B229647}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C35594-4EF3-43E4-997C-CD7860BF2AE1}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1978,98 +1936,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="37"/>
-    <col min="6" max="6" width="2" style="37" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="37" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="37"/>
+    <col min="1" max="5" width="12.5703125" style="34"/>
+    <col min="6" max="6" width="2" style="34" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="36"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="36"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="36"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="36"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="36"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="36"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="36"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="36"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="36"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="36"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="36"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="36"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="36"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="36"/>
+      <c r="F14" s="33"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="36"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="36"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="36"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="36"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="36"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="36"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="36"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="36"/>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="36"/>
+      <c r="F23" s="33"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="36"/>
+      <c r="F24" s="33"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="36"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="36"/>
+      <c r="F26" s="33"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="36"/>
+      <c r="F27" s="33"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="36"/>
+      <c r="F28" s="33"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="36"/>
+      <c r="F29" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5303,19 +5261,19 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="2" t="s">
         <v>269</v>
       </c>
     </row>
@@ -5338,46 +5296,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>273</v>
       </c>
     </row>
@@ -5402,54 +5360,55 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" customWidth="1"/>
+    <col min="9" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" customWidth="1"/>
+    <col min="14" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="20" t="s">
         <v>291</v>
       </c>
     </row>
@@ -5460,43 +5419,43 @@
       <c r="B2" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="23">
         <v>45717</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="24">
         <v>1319</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="25">
         <v>7765</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="25">
         <v>1096</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="26" t="s">
         <v>295</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="26" t="s">
         <v>295</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="27" t="s">
         <v>296</v>
       </c>
     </row>
@@ -5527,25 +5486,24 @@
       <c r="B1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="E1" s="32">
-        <f>SUM(B2:B157)</f>
+      <c r="E1" s="29">
+        <v>15072</v>
+      </c>
+      <c r="F1" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" s="32">
         <v>11</v>
       </c>
-      <c r="F1" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="B2" s="35">
-        <v>11</v>
-      </c>
-      <c r="C2" s="33">
+      <c r="C2" s="30">
         <v>7.2741700833223123E-4</v>
       </c>
     </row>

--- a/ELDORADO_DO_SUL.xlsx
+++ b/ELDORADO_DO_SUL.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76321403-8D20-425F-8826-AA78343846CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5694CC26-D88E-49BC-915D-84749532FFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="Paineis DARQ" sheetId="8" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
     <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="DGC" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="304">
   <si>
     <t>COMARCA</t>
   </si>
@@ -926,6 +927,18 @@
   </si>
   <si>
     <t>ELDORADO DO SUL</t>
+  </si>
+  <si>
+    <t>TEMÁTICA</t>
+  </si>
+  <si>
+    <t>PROBLEMA</t>
+  </si>
+  <si>
+    <t>MAOBRAS/MATIC</t>
+  </si>
+  <si>
+    <t>Muitas correções do ateste.</t>
   </si>
 </sst>
 </file>
@@ -935,7 +948,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="&quot; &quot;mmmm&quot; / &quot;yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -988,6 +1001,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1002,7 +1028,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1043,6 +1069,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB7E1CD"/>
         <bgColor rgb="FFB7E1CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
@@ -1115,9 +1147,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1199,12 +1231,16 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{6629A85A-DBC9-4CD8-8FD4-01AE0F18A226}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{1AF2AF99-173A-4A51-A73E-8DDB28BB12F0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,10 +1270,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75F0E2C0-5EF4-4789-A91E-499D6201AE50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4226FAC7-48CE-4956-8087-740D639F40B0}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1275,7 +1311,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A5D698D-1952-41F1-8DAF-328F02B0C872}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BFBB158-0770-401B-8DB1-AAC463F61672}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1338,7 +1374,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B7A4EF2-7E5B-4594-9790-426D0E19146E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{450BF470-CCD0-43DB-B6AD-BBD53D496EF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1357,7 +1393,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C0A0623-DA14-B4C1-5FE4-D46635DEDC5F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7705043-75A6-D093-3BD0-98F69F9F732F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1406,7 +1442,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2268B447-1D7F-A426-582A-ACCFDDF20C14}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54D95415-7B39-92DF-595B-6C61C1B6BCE9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1425,7 +1461,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F69205C-65AE-311D-253C-96F2248F1E0F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C722E1C0-ADB8-8519-3A7B-DEB32E2480D1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1456,7 +1492,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA6A65E-73F9-A3DB-18F2-E23135DE5FB5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92B7B932-1548-5189-BB89-D4767CE08EDC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1487,7 +1523,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B3B4139-9268-7DA3-8DC8-2FF79480FEF8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17983229-41B3-FC99-ED4F-B1A0EEE51F92}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1530,7 +1566,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD080D8-67B4-4C64-AA5D-AF0D93451BC5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{237D1239-A2BB-4013-BF25-BF6F996EE479}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1568,7 +1604,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B65D4C3-EFDD-4A42-AFA0-59B3BD77526B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E41820C9-2E1E-42FA-A9C8-4DF526D09A37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1611,7 +1647,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14A97D29-49FE-49F7-92CF-21E523AC1AEE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E2FB51B-C4E6-419C-8106-196DC28C371D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1924,7 +1960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C35594-4EF3-43E4-997C-CD7860BF2AE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC13F16D-E18B-4413-9CA8-6D73D1F0FE5E}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1936,98 +1972,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="34"/>
-    <col min="6" max="6" width="2" style="34" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="34"/>
+    <col min="1" max="5" width="12.5703125" style="36"/>
+    <col min="6" max="6" width="2" style="36" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="36" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="33"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="33"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="33"/>
+      <c r="F3" s="35"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="33"/>
+      <c r="F4" s="35"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="33"/>
+      <c r="F5" s="35"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="33"/>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="33"/>
+      <c r="F7" s="35"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="33"/>
+      <c r="F8" s="35"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="33"/>
+      <c r="F9" s="35"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="33"/>
+      <c r="F10" s="35"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="33"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="33"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="33"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="33"/>
+      <c r="F14" s="35"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="33"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="33"/>
+      <c r="F16" s="35"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="33"/>
+      <c r="F17" s="35"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="33"/>
+      <c r="F18" s="35"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="33"/>
+      <c r="F19" s="35"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="33"/>
+      <c r="F20" s="35"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="33"/>
+      <c r="F21" s="35"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="33"/>
+      <c r="F22" s="35"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="33"/>
+      <c r="F23" s="35"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="33"/>
+      <c r="F24" s="35"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="33"/>
+      <c r="F25" s="35"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="33"/>
+      <c r="F26" s="35"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="33"/>
+      <c r="F27" s="35"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="33"/>
+      <c r="F28" s="35"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="33"/>
+      <c r="F29" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5510,4 +5546,44 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="88.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>303</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/ELDORADO_DO_SUL.xlsx
+++ b/ELDORADO_DO_SUL.xlsx
@@ -8,26 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5694CC26-D88E-49BC-915D-84749532FFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{643EF6DD-31CA-4804-BF05-8371EDA639D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="8" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="7" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
-    <sheet name="DGC" sheetId="7" r:id="rId8"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
+    <sheet name="DGC" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="301">
   <si>
     <t>COMARCA</t>
   </si>
@@ -918,15 +917,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>ELDORADO DO SUL</t>
   </si>
   <si>
     <t>TEMÁTICA</t>
@@ -1149,7 +1139,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1216,21 +1206,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1240,7 +1215,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{1AF2AF99-173A-4A51-A73E-8DDB28BB12F0}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{AD8E21F2-C0B9-48E8-A95D-9672D6FBFF17}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1270,10 +1245,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4226FAC7-48CE-4956-8087-740D639F40B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23149BC4-4ED4-4536-BB2C-837DE02E944D}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1311,7 +1286,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BFBB158-0770-401B-8DB1-AAC463F61672}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5F47D07-78F6-404B-8AE7-A11844A74C6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1374,7 +1349,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{450BF470-CCD0-43DB-B6AD-BBD53D496EF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{178B7889-0E25-48DB-AC1A-701DA2BEEDF3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1393,7 +1368,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7705043-75A6-D093-3BD0-98F69F9F732F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C11CA5E4-46F5-39FB-DC68-551D8223C8FF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1442,7 +1417,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54D95415-7B39-92DF-595B-6C61C1B6BCE9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D06701E0-48F2-607A-F3C1-DDCBF2CC4745}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1461,7 +1436,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C722E1C0-ADB8-8519-3A7B-DEB32E2480D1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21432441-561C-3B07-0F94-528BA2F29E2B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1492,7 +1467,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92B7B932-1548-5189-BB89-D4767CE08EDC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{706FCC29-0F58-746F-C956-84CAC053E074}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1523,7 +1498,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17983229-41B3-FC99-ED4F-B1A0EEE51F92}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C501DB-67B5-4216-195A-959DDB8E6641}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1566,7 +1541,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{237D1239-A2BB-4013-BF25-BF6F996EE479}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AB170E6-67A7-4C19-B71E-3B59885C4A79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1604,7 +1579,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E41820C9-2E1E-42FA-A9C8-4DF526D09A37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A9A3934-51C8-4AC3-90BE-F4FEA2BC1C78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1647,7 +1622,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E2FB51B-C4E6-419C-8106-196DC28C371D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038FF48D-4360-4E4E-ACF8-1A658360EDC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1960,7 +1935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC13F16D-E18B-4413-9CA8-6D73D1F0FE5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05819DA-6C2F-4FF5-80C9-60225D2377B4}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1972,98 +1947,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="36"/>
-    <col min="6" max="6" width="2" style="36" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="36" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="36"/>
+    <col min="1" max="5" width="12.5703125" style="31"/>
+    <col min="6" max="6" width="2" style="31" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="31" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="35"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="35"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="35"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="35"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="35"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="35"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="35"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="35"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="35"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="35"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="35"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="35"/>
+      <c r="F12" s="30"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="35"/>
+      <c r="F13" s="30"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="35"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="35"/>
+      <c r="F15" s="30"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="35"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="35"/>
+      <c r="F17" s="30"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="35"/>
+      <c r="F18" s="30"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="35"/>
+      <c r="F19" s="30"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="35"/>
+      <c r="F20" s="30"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="35"/>
+      <c r="F21" s="30"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="35"/>
+      <c r="F22" s="30"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="35"/>
+      <c r="F23" s="30"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="35"/>
+      <c r="F24" s="30"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="35"/>
+      <c r="F25" s="30"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="35"/>
+      <c r="F26" s="30"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="35"/>
+      <c r="F27" s="30"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="35"/>
+      <c r="F28" s="30"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="35"/>
+      <c r="F29" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5502,54 +5477,6 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>298</v>
-      </c>
-      <c r="E1" s="29">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>299</v>
-      </c>
-      <c r="B2" s="32">
-        <v>11</v>
-      </c>
-      <c r="C2" s="30">
-        <v>7.2741700833223123E-4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5562,25 +5489,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>300</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/ELDORADO_DO_SUL.xlsx
+++ b/ELDORADO_DO_SUL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{643EF6DD-31CA-4804-BF05-8371EDA639D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89C1013E-17F7-4D6A-88C7-A8F456C84AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1215,7 +1215,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{AD8E21F2-C0B9-48E8-A95D-9672D6FBFF17}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{1306B9A0-DE61-4F88-86AD-00516C5610B9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1245,10 +1245,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23149BC4-4ED4-4536-BB2C-837DE02E944D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0B81B96-85AB-4FFC-9AFF-75B81C873B58}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1286,7 +1286,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5F47D07-78F6-404B-8AE7-A11844A74C6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF95D37A-80DD-4540-82EE-B535147F3296}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1349,7 +1349,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{178B7889-0E25-48DB-AC1A-701DA2BEEDF3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82FB758E-7BAF-47E1-9EA7-6DCE0465AE1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1368,7 +1368,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C11CA5E4-46F5-39FB-DC68-551D8223C8FF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E326019A-A146-2C23-FB57-70E77EBB6F10}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1417,7 +1417,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D06701E0-48F2-607A-F3C1-DDCBF2CC4745}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4687B097-784F-FF59-4B1A-D71639BF611D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1436,7 +1436,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21432441-561C-3B07-0F94-528BA2F29E2B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FEADC7B-1084-DBB0-C58C-7EED25F78740}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1467,7 +1467,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{706FCC29-0F58-746F-C956-84CAC053E074}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63CC516A-2DC3-3B04-C803-CCC1412820F1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1498,7 +1498,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C501DB-67B5-4216-195A-959DDB8E6641}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69941801-1619-E21E-0DD8-095612DA888F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1541,7 +1541,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AB170E6-67A7-4C19-B71E-3B59885C4A79}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C931CB9-4221-461F-A3D1-5CC6AA4929B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1579,7 +1579,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A9A3934-51C8-4AC3-90BE-F4FEA2BC1C78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E2071B0-1986-46EC-8A51-8325BD169977}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1604,50 +1604,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038FF48D-4360-4E4E-ACF8-1A658360EDC6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1935,7 +1891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05819DA-6C2F-4FF5-80C9-60225D2377B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15C6FC1-1B4B-412D-94F9-A2B5F2C427DD}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
